--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="284">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Наименование оборудования, комплекта</t>
   </si>
   <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
-  </si>
-  <si>
     <t>Инвентарный номер</t>
   </si>
   <si>
@@ -837,6 +831,51 @@
   </si>
   <si>
     <t>1/0/52</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube159-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube158-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S2 / kube152-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S1 / dc5.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S1 /  ts1-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер T2.2 / xdb141_ural</t>
+  </si>
+  <si>
+    <t>Сервер S3 / fdb122-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S4 / sdb132-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch236-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch204-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch205-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch206-f1.asbi.grfc.ru</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ch207-f1.asbi.grfc.ru </t>
   </si>
 </sst>
 </file>
@@ -1180,11 +1219,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1197,98 +1244,98 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" s="2">
         <v>2020</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1298,48 +1345,48 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>2020</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1349,24 +1396,24 @@
         <v>2020</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1376,79 +1423,81 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>2020</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>2020</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1458,48 +1507,48 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2">
         <v>2020</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1509,24 +1558,24 @@
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1536,79 +1585,81 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
         <v>2020</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>2020</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1618,48 +1669,48 @@
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2">
         <v>2020</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1669,24 +1720,24 @@
         <v>2020</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1696,79 +1747,81 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
         <v>2020</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2">
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1778,48 +1831,48 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2">
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1829,24 +1882,24 @@
         <v>2020</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1856,79 +1909,81 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2">
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
         <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1938,48 +1993,48 @@
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L19" s="2">
         <v>2020</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1989,24 +2044,24 @@
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2016,79 +2071,81 @@
         <v>2</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2">
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L22" s="2">
         <v>2020</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2098,48 +2155,48 @@
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2">
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2149,24 +2206,24 @@
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2176,79 +2233,81 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L25" s="2">
         <v>2020</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" s="2">
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2258,48 +2317,48 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="2">
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" s="2">
         <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2309,24 +2368,24 @@
         <v>2020</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2336,75 +2395,77 @@
         <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L29" s="2">
         <v>2020</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L30" s="2">
         <v>2019</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2414,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -2424,24 +2485,24 @@
         <v>2020</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2451,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2461,67 +2522,69 @@
         <v>2020</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L33" s="2">
         <v>2020</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2531,48 +2594,48 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L34" s="2">
         <v>2020</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2">
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2582,24 +2645,24 @@
         <v>2020</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2609,48 +2672,50 @@
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L36" s="2">
         <v>2020</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -2660,24 +2725,24 @@
         <v>2021</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2691,30 +2756,30 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L38" s="2">
         <v>2021</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2728,30 +2793,30 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L39" s="2">
         <v>2020</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2765,30 +2830,30 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L40" s="2">
         <v>2021</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2802,73 +2867,75 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L41" s="2">
         <v>2021</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L42" s="2">
         <v>2020</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2878,48 +2945,48 @@
         <v>2</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L43" s="2">
         <v>2020</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -2929,24 +2996,24 @@
         <v>2020</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2956,79 +3023,81 @@
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L45" s="2">
         <v>2020</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L46" s="2">
         <v>2020</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3038,48 +3107,48 @@
         <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L47" s="2">
         <v>2020</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -3089,24 +3158,24 @@
         <v>2020</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3116,79 +3185,81 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L49" s="2">
         <v>2020</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L50" s="2">
         <v>2020</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3198,36 +3269,36 @@
         <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L51" s="2">
         <v>2020</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -3237,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3247,24 +3318,24 @@
         <v>2020</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3274,83 +3345,83 @@
         <v>2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L53" s="2">
         <v>2020</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L54" s="2">
         <v>2020</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3364,30 +3435,30 @@
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L55" s="2">
         <v>2020</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -3401,1210 +3472,1210 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L56" s="2">
         <v>2020</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2">
         <v>2</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L57" s="2">
         <v>2020</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
         <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L58" s="2">
         <v>2020</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L59" s="2">
         <v>2020</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
         <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L60" s="2">
         <v>2020</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L61" s="2">
         <v>2020</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L62" s="2">
         <v>2020</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L63" s="2">
         <v>2020</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L64" s="2">
         <v>2020</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2">
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L65" s="2">
         <v>2020</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2">
         <v>2</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L66" s="2">
         <v>2020</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L67" s="2">
         <v>2020</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
         <v>2</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L68" s="2">
         <v>2020</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
         <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L69" s="2">
         <v>2020</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2">
         <v>2</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L70" s="2">
         <v>2020</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2">
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L71" s="2">
         <v>2020</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
         <v>2</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L72" s="2">
         <v>2020</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L73" s="2">
         <v>2020</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2">
         <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L74" s="2">
         <v>2020</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L75" s="2">
         <v>2020</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L76" s="2">
         <v>2020</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2">
         <v>2</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L77" s="2">
         <v>2021</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L78" s="2">
         <v>2020</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2">
         <v>2</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L79" s="2">
         <v>2020</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2">
         <v>2</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L80" s="2">
         <v>2020</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
         <v>2</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L81" s="2">
         <v>2020</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2">
         <v>2</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L82" s="2">
         <v>2020</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2">
         <v>2</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L83" s="2">
         <v>2020</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L84" s="2">
         <v>2020</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="289">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -876,6 +876,21 @@
   </si>
   <si>
     <t>Сервер S5 / ch207-f1.asbi.grfc.ru </t>
+  </si>
+  <si>
+    <t>10GBASE-SR</t>
+  </si>
+  <si>
+    <t>10G SFP+ AOC</t>
+  </si>
+  <si>
+    <t>SYS-1029P-WTR</t>
+  </si>
+  <si>
+    <t>BC1T4GPU1</t>
+  </si>
+  <si>
+    <t>PM160-220/12</t>
   </si>
 </sst>
 </file>
@@ -933,10 +948,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1219,13 +1235,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
@@ -1337,7 +1353,9 @@
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1376,7 +1394,9 @@
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -1415,7 +1435,9 @@
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1499,7 +1521,9 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1538,7 +1562,9 @@
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -1577,7 +1603,9 @@
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1661,7 +1689,9 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1700,7 +1730,9 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
@@ -1739,7 +1771,9 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1823,7 +1857,9 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1862,7 +1898,9 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
@@ -1901,7 +1939,9 @@
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1985,7 +2025,9 @@
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2024,7 +2066,9 @@
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
@@ -2063,7 +2107,9 @@
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2147,7 +2193,9 @@
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2186,7 +2234,9 @@
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -2225,7 +2275,9 @@
       <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2309,7 +2361,9 @@
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2348,7 +2402,9 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
@@ -2387,7 +2443,9 @@
       <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2426,7 +2484,9 @@
       <c r="C30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>276</v>
       </c>
@@ -2467,7 +2527,9 @@
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2504,7 +2566,9 @@
       <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2586,7 +2650,9 @@
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2625,7 +2691,9 @@
       <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
@@ -2664,7 +2732,9 @@
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2744,7 +2814,9 @@
       <c r="C38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2781,7 +2853,9 @@
       <c r="C39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2818,7 +2892,9 @@
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2855,7 +2931,9 @@
       <c r="C41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2937,7 +3015,9 @@
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2976,7 +3056,9 @@
       <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
@@ -3015,7 +3097,9 @@
       <c r="C45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3099,7 +3183,9 @@
       <c r="C47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3138,7 +3224,9 @@
       <c r="C48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
@@ -3177,7 +3265,9 @@
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3261,7 +3351,9 @@
       <c r="C51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3300,7 +3392,9 @@
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3337,7 +3431,9 @@
       <c r="C53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3423,7 +3519,9 @@
       <c r="C55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3460,7 +3558,9 @@
       <c r="C56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4680,5 +4780,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
@@ -806,9 +806,6 @@
     <t>27.30</t>
   </si>
   <si>
-    <t>Трансивер 40GBASE- LR4</t>
-  </si>
-  <si>
     <t>FT-QSFP+-LR4</t>
   </si>
   <si>
@@ -891,6 +888,9 @@
   </si>
   <si>
     <t>PM160-220/12</t>
+  </si>
+  <si>
+    <t>Трансивер 40GBASE-LR4</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1310,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -1354,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1395,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1436,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
@@ -1522,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1563,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1604,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1648,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>50</v>
@@ -1690,7 +1690,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1731,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1772,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>60</v>
@@ -1858,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1899,7 +1899,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1940,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1984,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>71</v>
@@ -2026,7 +2026,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2067,7 +2067,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2108,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2152,7 +2152,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>82</v>
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2235,7 +2235,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2276,7 +2276,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2320,7 +2320,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
@@ -2362,7 +2362,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2403,7 +2403,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2444,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2485,10 +2485,10 @@
         <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2528,7 +2528,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2567,7 +2567,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2609,7 +2609,7 @@
         <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>115</v>
@@ -2651,7 +2651,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2692,7 +2692,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2733,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2777,7 +2777,7 @@
         <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2815,7 +2815,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2854,7 +2854,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2893,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2932,7 +2932,7 @@
         <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2974,7 +2974,7 @@
         <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>140</v>
@@ -3016,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3057,7 +3057,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3098,7 +3098,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3142,7 +3142,7 @@
         <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>150</v>
@@ -3184,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3225,7 +3225,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3266,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3310,7 +3310,7 @@
         <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>160</v>
@@ -3352,7 +3352,7 @@
         <v>26</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3393,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3432,7 +3432,7 @@
         <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3520,7 +3520,7 @@
         <v>178</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -3559,7 +3559,7 @@
         <v>178</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -4702,10 +4702,10 @@
         <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -4714,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -4737,27 +4737,27 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H85" s="2">
-        <v>2</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="290">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -119,9 +119,6 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>Кабель оптический 10G SFP+</t>
-  </si>
-  <si>
     <t>Учтено в коммутационном оборудовании</t>
   </si>
   <si>
@@ -818,9 +815,6 @@
     <t>27.31</t>
   </si>
   <si>
-    <t>Кабель оптический 40G SFP+</t>
-  </si>
-  <si>
     <t>FT-QSFP+CabA-3</t>
   </si>
   <si>
@@ -875,12 +869,6 @@
     <t>Сервер S5 / ch207-f1.asbi.grfc.ru </t>
   </si>
   <si>
-    <t>10GBASE-SR</t>
-  </si>
-  <si>
-    <t>10G SFP+ AOC</t>
-  </si>
-  <si>
     <t>SYS-1029P-WTR</t>
   </si>
   <si>
@@ -891,6 +879,21 @@
   </si>
   <si>
     <t>Трансивер 40GBASE-LR4</t>
+  </si>
+  <si>
+    <t>FT-SFP+SR-0.3-D</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 2м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 40G SFP+, 3м</t>
+  </si>
+  <si>
+    <t>Кабель оптический 10G SFP+, 5м</t>
   </si>
 </sst>
 </file>
@@ -1235,13 +1238,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
@@ -1260,10 +1264,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1310,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -1353,8 +1357,8 @@
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>283</v>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1391,22 +1395,22 @@
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
+      <c r="C4" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1427,16 +1431,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>283</v>
+      <c r="D5" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1445,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1468,29 +1472,29 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1513,16 +1517,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>283</v>
+      <c r="D7" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1554,27 +1558,27 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
+      <c r="C8" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1595,16 +1599,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>283</v>
+      <c r="D9" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1613,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1636,29 +1640,29 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -1681,16 +1685,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>283</v>
+      <c r="D11" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1722,27 +1726,27 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
+      <c r="C12" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1763,16 +1767,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>283</v>
+      <c r="D13" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1781,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1804,29 +1808,29 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -1849,16 +1853,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>283</v>
+      <c r="D15" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1890,27 +1894,27 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
+      <c r="C16" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1931,16 +1935,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>283</v>
+      <c r="D17" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1949,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -1972,29 +1976,29 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
         <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -2017,16 +2021,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>283</v>
+      <c r="D19" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2058,27 +2062,27 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
+      <c r="C20" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -2099,16 +2103,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>283</v>
+      <c r="D21" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2117,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2140,29 +2144,29 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2185,16 +2189,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>283</v>
+      <c r="D23" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2226,27 +2230,27 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
+      <c r="C24" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2267,16 +2271,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>283</v>
+      <c r="D25" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2285,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -2308,29 +2312,29 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -2353,16 +2357,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>283</v>
+      <c r="D27" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2394,27 +2398,27 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
+      <c r="C28" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2435,16 +2439,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>283</v>
+      <c r="D29" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2453,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -2476,19 +2480,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2496,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -2519,16 +2523,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>283</v>
+      <c r="D31" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2537,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -2558,16 +2562,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>283</v>
+      <c r="D32" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2576,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2597,29 +2601,29 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -2642,16 +2646,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>283</v>
+      <c r="D34" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2683,27 +2687,27 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
+      <c r="C35" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2724,16 +2728,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
+      <c r="D36" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2742,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -2765,19 +2769,19 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2785,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -2806,16 +2810,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>283</v>
+      <c r="D38" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2845,16 +2849,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>283</v>
+      <c r="D39" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2884,16 +2888,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>283</v>
+      <c r="D40" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2923,16 +2927,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2962,29 +2966,29 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -3007,16 +3011,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>283</v>
+      <c r="D43" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3048,27 +3052,27 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>31</v>
+      <c r="C44" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -3089,16 +3093,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>283</v>
+      <c r="D45" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3107,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -3130,29 +3134,29 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -3175,16 +3179,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>283</v>
+      <c r="D47" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3216,27 +3220,27 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>31</v>
+      <c r="C48" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H48" s="2">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -3257,16 +3261,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>283</v>
+      <c r="D49" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3275,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -3298,29 +3302,29 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -3343,16 +3347,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>283</v>
+      <c r="D51" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3384,16 +3388,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>31</v>
+      <c r="C52" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3402,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3423,16 +3427,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>283</v>
+      <c r="D53" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3441,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -3464,31 +3468,31 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -3511,16 +3515,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -3533,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" s="2">
         <v>2020</v>
@@ -3550,16 +3554,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -3572,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L56" s="2">
         <v>2020</v>
@@ -3589,16 +3593,16 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3607,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -3630,16 +3634,16 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>31</v>
+      <c r="C58" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3648,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -3671,16 +3675,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>31</v>
+      <c r="C59" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3689,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -3712,16 +3716,16 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>31</v>
+      <c r="C60" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3730,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -3753,16 +3757,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>31</v>
+      <c r="C61" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3771,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -3794,16 +3798,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -3812,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -3835,16 +3839,16 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>31</v>
+      <c r="C63" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -3853,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -3876,16 +3880,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>31</v>
+      <c r="C64" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -3894,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -3917,16 +3921,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>31</v>
+      <c r="C65" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3935,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -3958,16 +3962,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>31</v>
+      <c r="C66" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -3999,16 +4003,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>31</v>
+      <c r="C67" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -4017,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -4040,16 +4044,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -4058,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -4084,13 +4088,13 @@
         <v>29</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>31</v>
+        <v>221</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -4099,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -4122,16 +4126,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>31</v>
+        <v>223</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4140,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -4163,16 +4167,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>225</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -4181,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -4204,16 +4208,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>31</v>
+        <v>227</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -4222,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -4245,16 +4249,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>31</v>
+        <v>229</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -4263,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -4286,16 +4290,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>31</v>
+        <v>231</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4304,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -4327,16 +4331,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>31</v>
+        <v>233</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4345,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -4368,16 +4372,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4386,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -4409,16 +4413,16 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4427,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -4450,16 +4454,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4468,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -4491,16 +4495,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>31</v>
+        <v>245</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -4509,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -4532,16 +4536,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>31</v>
+        <v>247</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -4550,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -4573,16 +4577,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>31</v>
+        <v>249</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -4591,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -4614,16 +4618,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4632,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -4655,16 +4659,16 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -4673,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -4696,16 +4700,16 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -4714,7 +4718,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -4737,27 +4741,27 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
